--- a/Benchmarking/Boullanger_Wood_2022/Boullanger_Wood_Supp_info.xlsx
+++ b/Benchmarking/Boullanger_Wood_2022/Boullanger_Wood_Supp_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\PySulfSat\PySulfSat_Structure\Benchmarking\Boullanger_Wood_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F861F6E6-585C-47E1-9B65-08EF364BB942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D36F4A-A930-4438-A812-E2AFA5E0BF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15510" tabRatio="500" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" tabRatio="500" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,11 @@
     <sheet name="Fig_S3_comparison_Moretti_Otton" sheetId="9" r:id="rId13"/>
     <sheet name="Fig_S4_Comparison_O'Neill&amp;Mavro" sheetId="19" r:id="rId14"/>
     <sheet name="Sulfate_capacity_calculation_sp" sheetId="15" r:id="rId15"/>
-    <sheet name="EPMA_parameters_secondary_std" sheetId="16" r:id="rId16"/>
-    <sheet name="L17_standard" sheetId="17" r:id="rId17"/>
-    <sheet name="SIMS_std" sheetId="18" r:id="rId18"/>
+    <sheet name="PySulfSat_Input" sheetId="20" r:id="rId16"/>
+    <sheet name="TestData" sheetId="21" r:id="rId17"/>
+    <sheet name="EPMA_parameters_secondary_std" sheetId="16" r:id="rId18"/>
+    <sheet name="L17_standard" sheetId="17" r:id="rId19"/>
+    <sheet name="SIMS_std" sheetId="18" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,6 +55,24 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F2CA7917-7CD7-4E83-A1B2-860DD7C07CF0}</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{F2CA7917-7CD7-4E83-A1B2-860DD7C07CF0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Calculated using Oneill Spreadsheet</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dorian THOMASSIN</author>
@@ -87,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="1257">
   <si>
     <t>Composition</t>
   </si>
@@ -4499,6 +4519,48 @@
   <si>
     <t>ln CS6+ O'Neill and Mavrogenes (2022) Eq. 12a</t>
   </si>
+  <si>
+    <t>SiO2_Liq</t>
+  </si>
+  <si>
+    <t>Al2O3_Liq</t>
+  </si>
+  <si>
+    <t>MgO_Liq</t>
+  </si>
+  <si>
+    <t>CaO_Liq</t>
+  </si>
+  <si>
+    <t>FeOt_Liq</t>
+  </si>
+  <si>
+    <t>TiO2_Liq</t>
+  </si>
+  <si>
+    <t>K2O_Liq</t>
+  </si>
+  <si>
+    <t>Na2O_Liq</t>
+  </si>
+  <si>
+    <t>MnO_Liq</t>
+  </si>
+  <si>
+    <t>molar proportions</t>
+  </si>
+  <si>
+    <t>Cation fraction</t>
+  </si>
+  <si>
+    <t>Bigger than it should be</t>
+  </si>
+  <si>
+    <t>Smaller than it should be</t>
+  </si>
+  <si>
+    <t>PW_LogCS6</t>
+  </si>
 </sst>
 </file>
 
@@ -4510,7 +4572,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4804,8 +4866,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4863,6 +4931,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5113,7 +5217,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5311,21 +5415,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5421,6 +5510,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6796,6 +6891,1373 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TestData!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PW_LogCS6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TestData!$L$2:$L$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TestData!$N$2:$N$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>5.9138193698274879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9126732962191202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2271223911920588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0372413794273152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5857684771658969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.358551306748506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4948046700106685</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8635592448597107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4281782917518617</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0434284567698295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.795297682070248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.137460013911709</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1506277416672113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0800952805041399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1682500303634127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2798206748353289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6145371467103224</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2999287962052906</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1694141785341721</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7758313193848965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3391729896124884</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0499196249469476</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8622453037228528</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2969159762465736</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6651000329997911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5391292093205102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5233522318389747</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.957943729644219</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7644902319814708</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9529561815911567</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2418975765694684</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0981845649531667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.846213147400432</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6006678978785915</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1069366189625622</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7195987602650682</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5731921876406805</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9082352084748742</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3439774708589969</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.2795551872398612</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.2669753527832484</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5778256894375327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8A7-4673-B490-0B18B226EDBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1:01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8A7-4673-B490-0B18B226EDBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="279067503"/>
+        <c:axId val="109365583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="279067503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Boull + Wood </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109365583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109365583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ONeill</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279067503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6878,6 +8340,53 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C341DDC2-D603-2209-AEFE-DE5ED5D38A18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Penny Wieser" id="{EEBCFAE5-9AAF-4D21-87C9-EF02AFA3F2C2}" userId="73708eac12f6644f" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7200,6 +8709,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N1" dT="2022-11-18T17:39:17.29" personId="{EEBCFAE5-9AAF-4D21-87C9-EF02AFA3F2C2}" id="{F2CA7917-7CD7-4E83-A1B2-860DD7C07CF0}">
+    <text>Calculated using Oneill Spreadsheet</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
@@ -7215,15 +8732,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="105" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="103" t="s">
         <v>1052</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="104" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -7483,7 +9000,7 @@
       <c r="P19" s="63"/>
     </row>
     <row r="20" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="83" t="s">
         <v>1235</v>
       </c>
       <c r="B20" s="68" t="s">
@@ -7504,7 +9021,7 @@
       <c r="P20" s="63"/>
     </row>
     <row r="21" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="83" t="s">
         <v>1236</v>
       </c>
       <c r="B21" s="68" t="s">
@@ -7567,8 +9084,8 @@
       <c r="P23" s="63"/>
     </row>
     <row r="24" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="107"/>
-      <c r="B24" s="105" t="s">
+      <c r="A24" s="102"/>
+      <c r="B24" s="100" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -22483,8 +24000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -22498,10 +24015,10 @@
       <c r="A1" s="67" t="s">
         <v>1239</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="101" t="s">
         <v>1234</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="101" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -23186,33 +24703,33 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="83" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="J5" s="115" t="s">
+    <row r="5" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J5" s="110" t="s">
         <v>1083</v>
       </c>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="117"/>
-    </row>
-    <row r="6" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="112"/>
+    </row>
+    <row r="6" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H6" s="70" t="s">
         <v>1084</v>
       </c>
@@ -23250,55 +24767,60 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H7" s="73">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="H7">
         <v>1473</v>
       </c>
-      <c r="I7" s="74">
-        <f>1/H7</f>
+      <c r="I7">
         <v>6.7888662593346908E-4</v>
       </c>
-      <c r="J7" s="75">
+      <c r="J7">
         <v>61.9</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7">
         <v>18.3</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7">
         <v>3.49</v>
       </c>
-      <c r="M7" s="75">
+      <c r="M7">
         <v>6.89</v>
       </c>
-      <c r="N7" s="76">
+      <c r="N7">
         <v>4.01</v>
       </c>
-      <c r="O7" s="76">
+      <c r="O7">
         <v>0.62</v>
       </c>
-      <c r="P7" s="76">
+      <c r="P7">
         <v>1.04</v>
       </c>
-      <c r="Q7" s="76">
+      <c r="Q7">
         <v>3.37</v>
       </c>
-      <c r="R7" s="76">
+      <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7" s="77">
-        <f>SUM(J7:R7)</f>
+      <c r="S7">
         <v>99.620000000000019</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7">
+        <f>H7-273.15</f>
+        <v>1199.8499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>1096</v>
       </c>
+      <c r="H10" t="s">
+        <v>1252</v>
+      </c>
       <c r="I10" s="72" t="s">
         <v>1086</v>
       </c>
@@ -23326,60 +24848,66 @@
       <c r="Q10" s="72" t="s">
         <v>1094</v>
       </c>
-      <c r="R10" s="78" t="s">
+      <c r="R10" s="73" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I11" s="79">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I11" s="74">
         <f>J7/60.06</f>
         <v>1.0306360306360305</v>
       </c>
-      <c r="J11" s="80">
+      <c r="J11" s="75">
         <f>K7*2/101.96</f>
         <v>0.35896429972538252</v>
       </c>
-      <c r="K11" s="81">
+      <c r="K11" s="76">
         <f>L7/40.32</f>
         <v>8.655753968253968E-2</v>
       </c>
-      <c r="L11" s="82">
+      <c r="L11" s="77">
         <f>M7/56.06</f>
         <v>0.12290403139493399</v>
       </c>
-      <c r="M11" s="80">
+      <c r="M11" s="75">
         <f>N7/71.85</f>
         <v>5.5810716771050803E-2</v>
       </c>
-      <c r="N11" s="83">
+      <c r="N11" s="78">
         <f>O7/79.9</f>
         <v>7.7596996245306625E-3</v>
       </c>
-      <c r="O11" s="83">
+      <c r="O11" s="78">
         <f>P7/47.1</f>
         <v>2.2080679405520168E-2</v>
       </c>
-      <c r="P11" s="83">
-        <f>3/30.99</f>
-        <v>9.6805421103581812E-2</v>
-      </c>
-      <c r="Q11" s="83">
+      <c r="P11" s="78">
+        <f>Q7/30.99</f>
+        <v>0.10874475637302357</v>
+      </c>
+      <c r="Q11" s="78">
         <f>R7/70.94</f>
         <v>0</v>
       </c>
-      <c r="R11" s="84">
+      <c r="R11" s="79">
         <f>SUM(I11:Q11)</f>
-        <v>1.7815184183435702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C12" s="85" t="s">
+        <v>1.7934577536130119</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C12" s="80" t="s">
         <v>1098</v>
       </c>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
     </row>
-    <row r="15" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G15" t="s">
+        <v>1253</v>
+      </c>
       <c r="I15" s="72" t="s">
         <v>1099</v>
       </c>
@@ -23408,42 +24936,47 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I16" s="84">
-        <f t="shared" ref="I16:Q16" si="0">I11/$R11</f>
-        <v>0.5785155067856671</v>
-      </c>
-      <c r="J16" s="84">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I16" s="79">
+        <f>I11/$R11</f>
+        <v>0.57466423647825648</v>
+      </c>
+      <c r="J16" s="79">
+        <f>J11/$R11</f>
+        <v>0.20015207997078865</v>
+      </c>
+      <c r="K16" s="79">
+        <f>K11/$R11</f>
+        <v>4.8262937617663489E-2</v>
+      </c>
+      <c r="L16" s="79">
+        <f t="shared" ref="L16:Q16" si="0">L11/$R11</f>
+        <v>6.8529091999707026E-2</v>
+      </c>
+      <c r="M16" s="79">
         <f t="shared" si="0"/>
-        <v>0.20149345413961103</v>
-      </c>
-      <c r="K16" s="84">
+        <v>3.111905851064363E-2</v>
+      </c>
+      <c r="N16" s="79">
         <f t="shared" si="0"/>
-        <v>4.85863849575126E-2</v>
-      </c>
-      <c r="L16" s="84">
+        <v>4.3266698693617692E-3</v>
+      </c>
+      <c r="O16" s="79">
+        <f>O11/$R11</f>
+        <v>1.2311792324651929E-2</v>
+      </c>
+      <c r="P16" s="79">
         <f t="shared" si="0"/>
-        <v>6.8988358542601186E-2</v>
-      </c>
-      <c r="M16" s="84">
-        <f t="shared" si="0"/>
-        <v>3.1327611433252987E-2</v>
-      </c>
-      <c r="N16" s="84">
-        <f t="shared" si="0"/>
-        <v>4.3556662365273318E-3</v>
-      </c>
-      <c r="O16" s="84">
-        <f t="shared" si="0"/>
-        <v>1.2394303184387206E-2</v>
-      </c>
-      <c r="P16" s="84">
-        <f t="shared" si="0"/>
-        <v>5.4338714720440599E-2</v>
-      </c>
-      <c r="Q16" s="84">
+        <v>6.0634133228927044E-2</v>
+      </c>
+      <c r="Q16" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="21" spans="9:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -23476,39 +25009,39 @@
       </c>
     </row>
     <row r="22" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I22" s="86">
-        <f t="shared" ref="I22:Q22" si="1">I16*1000/$H7</f>
-        <v>0.39274644045191248</v>
-      </c>
-      <c r="J22" s="86">
+      <c r="I22" s="81">
+        <f>I16*1000/$H7</f>
+        <v>0.39013186454735677</v>
+      </c>
+      <c r="J22" s="81">
+        <f t="shared" ref="J22:Q22" si="1">J16*1000/$H7</f>
+        <v>0.13588057024493461</v>
+      </c>
+      <c r="K22" s="81">
         <f t="shared" si="1"/>
-        <v>0.13679121122852073</v>
-      </c>
-      <c r="K22" s="86">
+        <v>3.276506287689307E-2</v>
+      </c>
+      <c r="L22" s="81">
         <f t="shared" si="1"/>
-        <v>3.2984646950110386E-2</v>
-      </c>
-      <c r="L22" s="86">
+        <v>4.6523484045965388E-2</v>
+      </c>
+      <c r="M22" s="81">
         <f t="shared" si="1"/>
-        <v>4.683527395967494E-2</v>
-      </c>
-      <c r="M22" s="86">
+        <v>2.1126312634517062E-2</v>
+      </c>
+      <c r="N22" s="81">
         <f t="shared" si="1"/>
-        <v>2.126789642447589E-2</v>
-      </c>
-      <c r="N22" s="86">
+        <v>2.9373183091390151E-3</v>
+      </c>
+      <c r="O22" s="81">
         <f t="shared" si="1"/>
-        <v>2.9570035550083723E-3</v>
-      </c>
-      <c r="O22" s="86">
+        <v>8.3583111504765308E-3</v>
+      </c>
+      <c r="P22" s="81">
         <f t="shared" si="1"/>
-        <v>8.4143266696450822E-3</v>
-      </c>
-      <c r="P22" s="86">
-        <f t="shared" si="1"/>
-        <v>3.6889826694121247E-2</v>
-      </c>
-      <c r="Q22" s="86">
+        <v>4.116370212418672E-2</v>
+      </c>
+      <c r="Q22" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23522,9 +25055,9 @@
       </c>
     </row>
     <row r="27" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="L27" s="87">
+      <c r="L27" s="82">
         <f>-12.659+(3692*L16-7592*I16-13736*N16+3762*J16+34483)/H7</f>
-        <v>8.4162235134221159</v>
+        <v>8.4317668104850956</v>
       </c>
       <c r="M27">
         <v>0.154</v>
@@ -23544,6 +25077,3466 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4BA8EF-4DD0-4A6C-97F8-390E17DC0C14}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1473</v>
+      </c>
+      <c r="B2">
+        <v>6.7888662593346908E-4</v>
+      </c>
+      <c r="C2">
+        <v>61.9</v>
+      </c>
+      <c r="D2">
+        <v>18.3</v>
+      </c>
+      <c r="E2">
+        <v>3.49</v>
+      </c>
+      <c r="F2">
+        <v>6.89</v>
+      </c>
+      <c r="G2">
+        <v>4.01</v>
+      </c>
+      <c r="H2">
+        <v>0.62</v>
+      </c>
+      <c r="I2">
+        <v>1.04</v>
+      </c>
+      <c r="J2">
+        <v>3.37</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>99.620000000000019</v>
+      </c>
+      <c r="M2">
+        <v>8.4162235134221159</v>
+      </c>
+      <c r="N2">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1473</v>
+      </c>
+      <c r="B3">
+        <v>6.7888662593346908E-4</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>18.3</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>4.01</v>
+      </c>
+      <c r="H3">
+        <v>0.62</v>
+      </c>
+      <c r="I3">
+        <v>1.04</v>
+      </c>
+      <c r="J3">
+        <v>3.37</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>95.340000000000018</v>
+      </c>
+      <c r="M3">
+        <v>9.0007241801685449</v>
+      </c>
+      <c r="N3">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1200</v>
+      </c>
+      <c r="B4">
+        <v>8.3333333333333339E-4</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>18.3</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>4.01</v>
+      </c>
+      <c r="H4">
+        <v>0.62</v>
+      </c>
+      <c r="I4">
+        <v>1.04</v>
+      </c>
+      <c r="J4">
+        <v>3.37</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>95.340000000000018</v>
+      </c>
+      <c r="M4">
+        <v>13.928311431156887</v>
+      </c>
+      <c r="N4">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1200</v>
+      </c>
+      <c r="B5">
+        <v>8.3333333333333339E-4</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>18.3</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>4.01</v>
+      </c>
+      <c r="H5">
+        <v>0.62</v>
+      </c>
+      <c r="I5">
+        <v>1.04</v>
+      </c>
+      <c r="J5">
+        <v>3.37</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>96.340000000000018</v>
+      </c>
+      <c r="M5">
+        <v>13.945338369847375</v>
+      </c>
+      <c r="N5">
+        <v>0.154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372E46E-F339-4BF3-885C-EDCFEBDA7669}">
+  <dimension ref="A1:N83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="111" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="116">
+        <v>1473</v>
+      </c>
+      <c r="C2" s="116">
+        <v>49.1</v>
+      </c>
+      <c r="D2" s="116">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E2" s="116">
+        <v>4.3</v>
+      </c>
+      <c r="F2" s="116">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G2" s="116">
+        <v>7.63</v>
+      </c>
+      <c r="H2" s="116">
+        <v>2.97</v>
+      </c>
+      <c r="I2" s="116">
+        <v>1.3</v>
+      </c>
+      <c r="J2" s="116">
+        <v>4.28</v>
+      </c>
+      <c r="K2" s="116">
+        <v>0.23</v>
+      </c>
+      <c r="L2" s="116">
+        <v>9</v>
+      </c>
+      <c r="M2" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="116">
+        <v>5.9138193698274879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="116">
+        <v>1473</v>
+      </c>
+      <c r="C3" s="116">
+        <v>49.1</v>
+      </c>
+      <c r="D3" s="116">
+        <v>14.4</v>
+      </c>
+      <c r="E3" s="116">
+        <v>8.5</v>
+      </c>
+      <c r="F3" s="116">
+        <v>12.4</v>
+      </c>
+      <c r="G3" s="116">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="H3" s="116">
+        <v>0.93</v>
+      </c>
+      <c r="I3" s="116">
+        <v>0.41</v>
+      </c>
+      <c r="J3" s="116">
+        <v>2.41</v>
+      </c>
+      <c r="K3" s="116">
+        <v>0.19</v>
+      </c>
+      <c r="L3" s="116">
+        <v>9</v>
+      </c>
+      <c r="M3" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="116">
+        <v>5.9126732962191202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="116">
+        <v>1473</v>
+      </c>
+      <c r="C4" s="116">
+        <v>43.2</v>
+      </c>
+      <c r="D4" s="116">
+        <v>14.3</v>
+      </c>
+      <c r="E4" s="116">
+        <v>7.9</v>
+      </c>
+      <c r="F4" s="116">
+        <v>14.4</v>
+      </c>
+      <c r="G4" s="116">
+        <v>8.73</v>
+      </c>
+      <c r="H4" s="116">
+        <v>2.93</v>
+      </c>
+      <c r="I4" s="116">
+        <v>0.49</v>
+      </c>
+      <c r="J4" s="116">
+        <v>2.58</v>
+      </c>
+      <c r="K4" s="116">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L4" s="116">
+        <v>9.4</v>
+      </c>
+      <c r="M4" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="116">
+        <v>6.2271223911920588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="116" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="116">
+        <v>1473</v>
+      </c>
+      <c r="C5" s="116">
+        <v>47.2</v>
+      </c>
+      <c r="D5" s="116">
+        <v>12.1</v>
+      </c>
+      <c r="E5" s="116">
+        <v>10.4</v>
+      </c>
+      <c r="F5" s="116">
+        <v>10.7</v>
+      </c>
+      <c r="G5" s="116">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H5" s="116">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I5" s="116">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J5" s="116">
+        <v>2.92</v>
+      </c>
+      <c r="K5" s="116">
+        <v>0.19</v>
+      </c>
+      <c r="L5" s="116">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M5" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="116">
+        <v>6.0372413794273152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="116">
+        <v>1473</v>
+      </c>
+      <c r="C6" s="116">
+        <v>57.7</v>
+      </c>
+      <c r="D6" s="116">
+        <v>20.7</v>
+      </c>
+      <c r="E6" s="116">
+        <v>2</v>
+      </c>
+      <c r="F6" s="116">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G6" s="116">
+        <v>4.88</v>
+      </c>
+      <c r="H6" s="116">
+        <v>1.64</v>
+      </c>
+      <c r="I6" s="116">
+        <v>2.62</v>
+      </c>
+      <c r="J6" s="116">
+        <v>6.03</v>
+      </c>
+      <c r="K6" s="116">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L6" s="116">
+        <v>8.6</v>
+      </c>
+      <c r="M6" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="N6" s="116">
+        <v>5.5857684771658969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="117" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="117">
+        <v>1523</v>
+      </c>
+      <c r="C7" s="117">
+        <v>47</v>
+      </c>
+      <c r="D7" s="117">
+        <v>13</v>
+      </c>
+      <c r="E7" s="117">
+        <v>8</v>
+      </c>
+      <c r="F7" s="117">
+        <v>11</v>
+      </c>
+      <c r="G7" s="117">
+        <v>11.07</v>
+      </c>
+      <c r="H7" s="117">
+        <v>5.35</v>
+      </c>
+      <c r="I7" s="117">
+        <v>0.24</v>
+      </c>
+      <c r="J7" s="117">
+        <v>1.68</v>
+      </c>
+      <c r="K7" s="117">
+        <v>0.49</v>
+      </c>
+      <c r="L7" s="117">
+        <v>8</v>
+      </c>
+      <c r="M7" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="117">
+        <v>5.358551306748506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="117" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="117">
+        <v>1523</v>
+      </c>
+      <c r="C8" s="117">
+        <v>50.1</v>
+      </c>
+      <c r="D8" s="117">
+        <v>14.8</v>
+      </c>
+      <c r="E8" s="117">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F8" s="117">
+        <v>12.3</v>
+      </c>
+      <c r="G8" s="117">
+        <v>9.1</v>
+      </c>
+      <c r="H8" s="117">
+        <v>0.92</v>
+      </c>
+      <c r="I8" s="117">
+        <v>0.24</v>
+      </c>
+      <c r="J8" s="117">
+        <v>2.09</v>
+      </c>
+      <c r="K8" s="117">
+        <v>0.18</v>
+      </c>
+      <c r="L8" s="117">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M8" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" s="117">
+        <v>5.4948046700106685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="117" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="117">
+        <v>1523</v>
+      </c>
+      <c r="C9" s="117">
+        <v>43.3</v>
+      </c>
+      <c r="D9" s="117">
+        <v>14.6</v>
+      </c>
+      <c r="E9" s="117">
+        <v>8.1</v>
+      </c>
+      <c r="F9" s="117">
+        <v>13.8</v>
+      </c>
+      <c r="G9" s="117">
+        <v>9.81</v>
+      </c>
+      <c r="H9" s="117">
+        <v>2.75</v>
+      </c>
+      <c r="I9" s="117">
+        <v>0.47</v>
+      </c>
+      <c r="J9" s="117">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="K9" s="117">
+        <v>2.42</v>
+      </c>
+      <c r="L9" s="117">
+        <v>8.6</v>
+      </c>
+      <c r="M9" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="117">
+        <v>5.8635592448597107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="117" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="117">
+        <v>1523</v>
+      </c>
+      <c r="C10" s="117">
+        <v>55.3</v>
+      </c>
+      <c r="D10" s="117">
+        <v>14.4</v>
+      </c>
+      <c r="E10" s="117">
+        <v>8.9</v>
+      </c>
+      <c r="F10" s="117">
+        <v>9.5</v>
+      </c>
+      <c r="G10" s="117">
+        <v>5.94</v>
+      </c>
+      <c r="H10" s="117">
+        <v>0.62</v>
+      </c>
+      <c r="I10" s="117">
+        <v>1.47</v>
+      </c>
+      <c r="J10" s="117">
+        <v>3.01</v>
+      </c>
+      <c r="L10" s="117">
+        <v>8.1</v>
+      </c>
+      <c r="M10" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="117">
+        <v>5.4281782917518617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="117" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="117">
+        <v>1523</v>
+      </c>
+      <c r="C11" s="117">
+        <v>62.2</v>
+      </c>
+      <c r="D11" s="117">
+        <v>18</v>
+      </c>
+      <c r="E11" s="117">
+        <v>3.3</v>
+      </c>
+      <c r="F11" s="117">
+        <v>6.6</v>
+      </c>
+      <c r="G11" s="117">
+        <v>3.53</v>
+      </c>
+      <c r="H11" s="117">
+        <v>0.61</v>
+      </c>
+      <c r="I11" s="117">
+        <v>1.25</v>
+      </c>
+      <c r="J11" s="117">
+        <v>4.83</v>
+      </c>
+      <c r="L11" s="117">
+        <v>7.3</v>
+      </c>
+      <c r="M11" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" s="117">
+        <v>5.0434284567698295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="117" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="117" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="117">
+        <v>1523</v>
+      </c>
+      <c r="C12" s="117">
+        <v>46.1</v>
+      </c>
+      <c r="D12" s="117">
+        <v>11.7</v>
+      </c>
+      <c r="E12" s="117">
+        <v>12.2</v>
+      </c>
+      <c r="F12" s="117">
+        <v>10.1</v>
+      </c>
+      <c r="G12" s="117">
+        <v>10.88</v>
+      </c>
+      <c r="H12" s="117">
+        <v>2.41</v>
+      </c>
+      <c r="I12" s="117">
+        <v>0.49</v>
+      </c>
+      <c r="J12" s="117">
+        <v>2.95</v>
+      </c>
+      <c r="K12" s="117">
+        <v>0.19</v>
+      </c>
+      <c r="L12" s="117">
+        <v>8.5</v>
+      </c>
+      <c r="M12" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="N12" s="117">
+        <v>5.795297682070248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="117" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="117">
+        <v>1523</v>
+      </c>
+      <c r="C13" s="117">
+        <v>57.5</v>
+      </c>
+      <c r="D13" s="117">
+        <v>21.5</v>
+      </c>
+      <c r="E13" s="117">
+        <v>2</v>
+      </c>
+      <c r="F13" s="117">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G13" s="117">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H13" s="117">
+        <v>1.66</v>
+      </c>
+      <c r="I13" s="117">
+        <v>2.42</v>
+      </c>
+      <c r="J13" s="117">
+        <v>5.34</v>
+      </c>
+      <c r="K13" s="117">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L13" s="117">
+        <v>8</v>
+      </c>
+      <c r="M13" s="117" t="s">
+        <v>275</v>
+      </c>
+      <c r="N13" s="117">
+        <v>5.137460013911709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="117" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="117">
+        <v>1523</v>
+      </c>
+      <c r="C14" s="117">
+        <v>43.4</v>
+      </c>
+      <c r="D14" s="117">
+        <v>11.6</v>
+      </c>
+      <c r="E14" s="117">
+        <v>12.1</v>
+      </c>
+      <c r="F14" s="117">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G14" s="117">
+        <v>10.67</v>
+      </c>
+      <c r="J14" s="117">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L14" s="117">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M14" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="N14" s="117">
+        <v>6.1506277416672113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C15" s="118">
+        <v>48.5</v>
+      </c>
+      <c r="D15" s="118">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E15" s="118">
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="118">
+        <v>9.6</v>
+      </c>
+      <c r="G15" s="118">
+        <v>10.77</v>
+      </c>
+      <c r="H15" s="118">
+        <v>3.6</v>
+      </c>
+      <c r="I15" s="118">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J15" s="118">
+        <v>3.39</v>
+      </c>
+      <c r="K15" s="118">
+        <v>0.23</v>
+      </c>
+      <c r="L15" s="118">
+        <v>7.3</v>
+      </c>
+      <c r="M15" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" s="118">
+        <v>5.0800952805041399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C16" s="118">
+        <v>42.9</v>
+      </c>
+      <c r="D16" s="118">
+        <v>12</v>
+      </c>
+      <c r="E16" s="118">
+        <v>7.7</v>
+      </c>
+      <c r="F16" s="118">
+        <v>10</v>
+      </c>
+      <c r="G16" s="118">
+        <v>15.14</v>
+      </c>
+      <c r="H16" s="118">
+        <v>7.44</v>
+      </c>
+      <c r="J16" s="118">
+        <v>2</v>
+      </c>
+      <c r="K16" s="118">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L16" s="118">
+        <v>7.3</v>
+      </c>
+      <c r="M16" s="118" t="s">
+        <v>305</v>
+      </c>
+      <c r="N16" s="118">
+        <v>5.1682500303634127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C17" s="118">
+        <v>49.5</v>
+      </c>
+      <c r="D17" s="118">
+        <v>14.7</v>
+      </c>
+      <c r="E17" s="118">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F17" s="118">
+        <v>12.2</v>
+      </c>
+      <c r="G17" s="118">
+        <v>9.1</v>
+      </c>
+      <c r="H17" s="118">
+        <v>0.93</v>
+      </c>
+      <c r="I17" s="118">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J17" s="118">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="K17" s="118">
+        <v>0.17</v>
+      </c>
+      <c r="L17" s="118">
+        <v>7.6</v>
+      </c>
+      <c r="M17" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N17" s="118">
+        <v>5.2798206748353289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C18" s="118">
+        <v>41.5</v>
+      </c>
+      <c r="D18" s="118">
+        <v>14.4</v>
+      </c>
+      <c r="E18" s="118">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F18" s="118">
+        <v>14.3</v>
+      </c>
+      <c r="G18" s="118">
+        <v>10.68</v>
+      </c>
+      <c r="H18" s="118">
+        <v>2.93</v>
+      </c>
+      <c r="I18" s="118">
+        <v>0.22</v>
+      </c>
+      <c r="J18" s="118">
+        <v>2.33</v>
+      </c>
+      <c r="K18" s="118">
+        <v>2.72</v>
+      </c>
+      <c r="L18" s="118">
+        <v>7.9</v>
+      </c>
+      <c r="M18" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="118">
+        <v>5.6145371467103224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C19" s="118">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D19" s="118">
+        <v>15.5</v>
+      </c>
+      <c r="E19" s="118">
+        <v>1.8</v>
+      </c>
+      <c r="F19" s="118">
+        <v>3.2</v>
+      </c>
+      <c r="G19" s="118">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H19" s="118">
+        <v>0.93</v>
+      </c>
+      <c r="I19" s="118">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J19" s="118">
+        <v>1.87</v>
+      </c>
+      <c r="L19" s="118">
+        <v>6.5</v>
+      </c>
+      <c r="M19" s="118" t="s">
+        <v>337</v>
+      </c>
+      <c r="N19" s="118">
+        <v>4.2999287962052906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C20" s="118">
+        <v>54.3</v>
+      </c>
+      <c r="D20" s="118">
+        <v>14.1</v>
+      </c>
+      <c r="E20" s="118">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F20" s="118">
+        <v>9.6</v>
+      </c>
+      <c r="G20" s="118">
+        <v>6.22</v>
+      </c>
+      <c r="H20" s="118">
+        <v>0.6</v>
+      </c>
+      <c r="I20" s="118">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J20" s="118">
+        <v>3.07</v>
+      </c>
+      <c r="L20" s="118">
+        <v>7.5</v>
+      </c>
+      <c r="M20" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" s="118">
+        <v>5.1694141785341721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C21" s="118">
+        <v>62.2</v>
+      </c>
+      <c r="D21" s="118">
+        <v>17</v>
+      </c>
+      <c r="E21" s="118">
+        <v>3.3</v>
+      </c>
+      <c r="F21" s="118">
+        <v>6.5</v>
+      </c>
+      <c r="G21" s="118">
+        <v>3.53</v>
+      </c>
+      <c r="H21" s="118">
+        <v>0.63</v>
+      </c>
+      <c r="I21" s="118">
+        <v>1.38</v>
+      </c>
+      <c r="J21" s="118">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="L21" s="118">
+        <v>6.7</v>
+      </c>
+      <c r="M21" s="118" t="s">
+        <v>337</v>
+      </c>
+      <c r="N21" s="118">
+        <v>4.7758313193848965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C22" s="118">
+        <v>45.7</v>
+      </c>
+      <c r="D22" s="118">
+        <v>11.5</v>
+      </c>
+      <c r="E22" s="118">
+        <v>13.5</v>
+      </c>
+      <c r="F22" s="118">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G22" s="118">
+        <v>11.7</v>
+      </c>
+      <c r="H22" s="118">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J22" s="118">
+        <v>2.09</v>
+      </c>
+      <c r="K22" s="118">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="118">
+        <v>7.6</v>
+      </c>
+      <c r="M22" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" s="118">
+        <v>5.3391729896124884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C23" s="118">
+        <v>57.7</v>
+      </c>
+      <c r="D23" s="118">
+        <v>20.6</v>
+      </c>
+      <c r="E23" s="118">
+        <v>2.1</v>
+      </c>
+      <c r="F23" s="118">
+        <v>4.8</v>
+      </c>
+      <c r="G23" s="118">
+        <v>4.92</v>
+      </c>
+      <c r="H23" s="118">
+        <v>1.66</v>
+      </c>
+      <c r="I23" s="118">
+        <v>2.44</v>
+      </c>
+      <c r="J23" s="118">
+        <v>6.28</v>
+      </c>
+      <c r="K23" s="118">
+        <v>0.15</v>
+      </c>
+      <c r="L23" s="118">
+        <v>7.3</v>
+      </c>
+      <c r="M23" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" s="118">
+        <v>5.0499196249469476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C24" s="118">
+        <v>42</v>
+      </c>
+      <c r="D24" s="118">
+        <v>10.8</v>
+      </c>
+      <c r="E24" s="118">
+        <v>14.1</v>
+      </c>
+      <c r="F24" s="118">
+        <v>18.2</v>
+      </c>
+      <c r="G24" s="118">
+        <v>11.86</v>
+      </c>
+      <c r="J24" s="118">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L24" s="118">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M24" s="118" t="s">
+        <v>305</v>
+      </c>
+      <c r="N24" s="118">
+        <v>5.8622453037228528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C25" s="118">
+        <v>70.2</v>
+      </c>
+      <c r="D25" s="118">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E25" s="118">
+        <v>0.3</v>
+      </c>
+      <c r="F25" s="118">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G25" s="118">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H25" s="118">
+        <v>0.32</v>
+      </c>
+      <c r="I25" s="118">
+        <v>6.93</v>
+      </c>
+      <c r="J25" s="118">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="L25" s="118">
+        <v>6.1</v>
+      </c>
+      <c r="M25" s="118" t="s">
+        <v>337</v>
+      </c>
+      <c r="N25" s="118">
+        <v>4.2969159762465736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C26" s="118">
+        <v>47.6</v>
+      </c>
+      <c r="D26" s="118">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E26" s="118">
+        <v>11.9</v>
+      </c>
+      <c r="F26" s="118">
+        <v>21.9</v>
+      </c>
+      <c r="J26" s="118">
+        <v>0.9</v>
+      </c>
+      <c r="L26" s="118">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M26" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" s="118">
+        <v>5.6651000329997911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C27" s="118">
+        <v>45</v>
+      </c>
+      <c r="D27" s="118">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E27" s="118">
+        <v>14.1</v>
+      </c>
+      <c r="F27" s="118">
+        <v>19.2</v>
+      </c>
+      <c r="J27" s="118">
+        <v>0.79</v>
+      </c>
+      <c r="L27" s="118">
+        <v>8.1</v>
+      </c>
+      <c r="M27" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N27" s="118">
+        <v>5.5391292093205102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="118">
+        <v>1573</v>
+      </c>
+      <c r="C28" s="118">
+        <v>49.1</v>
+      </c>
+      <c r="D28" s="118">
+        <v>15.3</v>
+      </c>
+      <c r="E28" s="118">
+        <v>14.4</v>
+      </c>
+      <c r="F28" s="118">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J28" s="118">
+        <v>0.78</v>
+      </c>
+      <c r="L28" s="118">
+        <v>8.1</v>
+      </c>
+      <c r="M28" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" s="118">
+        <v>5.5233522318389747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C29" s="119">
+        <v>48.3</v>
+      </c>
+      <c r="D29" s="119">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E29" s="119">
+        <v>4.3</v>
+      </c>
+      <c r="F29" s="119">
+        <v>9.5</v>
+      </c>
+      <c r="G29" s="119">
+        <v>10.63</v>
+      </c>
+      <c r="H29" s="119">
+        <v>3.46</v>
+      </c>
+      <c r="I29" s="119">
+        <v>0.93</v>
+      </c>
+      <c r="J29" s="119">
+        <v>4.03</v>
+      </c>
+      <c r="K29" s="119">
+        <v>0.24</v>
+      </c>
+      <c r="L29" s="119">
+        <v>6.8</v>
+      </c>
+      <c r="M29" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N29" s="119">
+        <v>4.957943729644219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C30" s="119">
+        <v>42.7</v>
+      </c>
+      <c r="D30" s="119">
+        <v>11.1</v>
+      </c>
+      <c r="E30" s="119">
+        <v>7</v>
+      </c>
+      <c r="F30" s="119">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G30" s="119">
+        <v>16.89</v>
+      </c>
+      <c r="H30" s="119">
+        <v>8.39</v>
+      </c>
+      <c r="I30" s="119">
+        <v>0.11</v>
+      </c>
+      <c r="J30" s="119">
+        <v>1.68</v>
+      </c>
+      <c r="K30" s="119">
+        <v>0.51</v>
+      </c>
+      <c r="L30" s="119">
+        <v>6.4</v>
+      </c>
+      <c r="M30" s="119" t="s">
+        <v>337</v>
+      </c>
+      <c r="N30" s="119">
+        <v>4.7644902319814708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C31" s="119">
+        <v>49.6</v>
+      </c>
+      <c r="D31" s="119">
+        <v>14.7</v>
+      </c>
+      <c r="E31" s="119">
+        <v>8.6</v>
+      </c>
+      <c r="F31" s="119">
+        <v>12.4</v>
+      </c>
+      <c r="G31" s="119">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H31" s="119">
+        <v>0.94</v>
+      </c>
+      <c r="I31" s="119">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="119">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K31" s="119">
+        <v>0.19</v>
+      </c>
+      <c r="L31" s="119">
+        <v>6.9</v>
+      </c>
+      <c r="M31" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N31" s="119">
+        <v>4.9529561815911567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C32" s="119">
+        <v>42.1</v>
+      </c>
+      <c r="D32" s="119">
+        <v>14.6</v>
+      </c>
+      <c r="E32" s="119">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F32" s="119">
+        <v>14.3</v>
+      </c>
+      <c r="G32" s="119">
+        <v>10.67</v>
+      </c>
+      <c r="H32" s="119">
+        <v>2.9</v>
+      </c>
+      <c r="I32" s="119">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J32" s="119">
+        <v>2.17</v>
+      </c>
+      <c r="K32" s="119">
+        <v>2.75</v>
+      </c>
+      <c r="L32" s="119">
+        <v>7.2</v>
+      </c>
+      <c r="M32" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N32" s="119">
+        <v>5.2418975765694684</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C33" s="119">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D33" s="119">
+        <v>15.9</v>
+      </c>
+      <c r="E33" s="119">
+        <v>1.4</v>
+      </c>
+      <c r="F33" s="119">
+        <v>3.4</v>
+      </c>
+      <c r="G33" s="119">
+        <v>4.03</v>
+      </c>
+      <c r="H33" s="119">
+        <v>0.92</v>
+      </c>
+      <c r="I33" s="119">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J33" s="119">
+        <v>1.99</v>
+      </c>
+      <c r="L33" s="119">
+        <v>6</v>
+      </c>
+      <c r="M33" s="119" t="s">
+        <v>337</v>
+      </c>
+      <c r="N33" s="119">
+        <v>4.0981845649531667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C34" s="119">
+        <v>54.3</v>
+      </c>
+      <c r="D34" s="119">
+        <v>14.4</v>
+      </c>
+      <c r="E34" s="119">
+        <v>9</v>
+      </c>
+      <c r="F34" s="119">
+        <v>9.6</v>
+      </c>
+      <c r="G34" s="119">
+        <v>6.43</v>
+      </c>
+      <c r="H34" s="119">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I34" s="119">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J34" s="119">
+        <v>2.88</v>
+      </c>
+      <c r="L34" s="119">
+        <v>6.8</v>
+      </c>
+      <c r="M34" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N34" s="119">
+        <v>4.846213147400432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C35" s="119">
+        <v>62.4</v>
+      </c>
+      <c r="D35" s="119">
+        <v>17</v>
+      </c>
+      <c r="E35" s="119">
+        <v>3.2</v>
+      </c>
+      <c r="F35" s="119">
+        <v>6.5</v>
+      </c>
+      <c r="G35" s="119">
+        <v>3.49</v>
+      </c>
+      <c r="H35" s="119">
+        <v>0.61</v>
+      </c>
+      <c r="I35" s="119">
+        <v>1.55</v>
+      </c>
+      <c r="J35" s="119">
+        <v>5.19</v>
+      </c>
+      <c r="L35" s="119">
+        <v>6.4</v>
+      </c>
+      <c r="M35" s="119" t="s">
+        <v>337</v>
+      </c>
+      <c r="N35" s="119">
+        <v>4.6006678978785915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C36" s="119">
+        <v>45.6</v>
+      </c>
+      <c r="D36" s="119">
+        <v>11.4</v>
+      </c>
+      <c r="E36" s="119">
+        <v>13.5</v>
+      </c>
+      <c r="F36" s="119">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G36" s="119">
+        <v>11.76</v>
+      </c>
+      <c r="H36" s="119">
+        <v>2.44</v>
+      </c>
+      <c r="I36" s="119">
+        <v>0.13</v>
+      </c>
+      <c r="J36" s="119">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="K36" s="119">
+        <v>0.2</v>
+      </c>
+      <c r="L36" s="119">
+        <v>7</v>
+      </c>
+      <c r="M36" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N36" s="119">
+        <v>5.1069366189625622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C37" s="119">
+        <v>58.1</v>
+      </c>
+      <c r="D37" s="119">
+        <v>20.6</v>
+      </c>
+      <c r="E37" s="119">
+        <v>2.1</v>
+      </c>
+      <c r="F37" s="119">
+        <v>4.8</v>
+      </c>
+      <c r="G37" s="119">
+        <v>5.01</v>
+      </c>
+      <c r="H37" s="119">
+        <v>1.65</v>
+      </c>
+      <c r="I37" s="119">
+        <v>2.08</v>
+      </c>
+      <c r="J37" s="119">
+        <v>6.23</v>
+      </c>
+      <c r="K37" s="119">
+        <v>0.15</v>
+      </c>
+      <c r="L37" s="119">
+        <v>6.7</v>
+      </c>
+      <c r="M37" s="119" t="s">
+        <v>486</v>
+      </c>
+      <c r="N37" s="119">
+        <v>4.7195987602650682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C38" s="119">
+        <v>40.5</v>
+      </c>
+      <c r="D38" s="119">
+        <v>10.6</v>
+      </c>
+      <c r="E38" s="119">
+        <v>15</v>
+      </c>
+      <c r="F38" s="119">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G38" s="119">
+        <v>13.39</v>
+      </c>
+      <c r="J38" s="119">
+        <v>0.64</v>
+      </c>
+      <c r="L38" s="119">
+        <v>7.5</v>
+      </c>
+      <c r="M38" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N38" s="119">
+        <v>5.5731921876406805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C39" s="119">
+        <v>72.8</v>
+      </c>
+      <c r="D39" s="119">
+        <v>14.4</v>
+      </c>
+      <c r="E39" s="119">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="119">
+        <v>1</v>
+      </c>
+      <c r="G39" s="119">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H39" s="119">
+        <v>0.31</v>
+      </c>
+      <c r="I39" s="119">
+        <v>7.48</v>
+      </c>
+      <c r="J39" s="119">
+        <v>1.51</v>
+      </c>
+      <c r="L39" s="119">
+        <v>5.6</v>
+      </c>
+      <c r="M39" s="119" t="s">
+        <v>337</v>
+      </c>
+      <c r="N39" s="119">
+        <v>3.9082352084748742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C40" s="119">
+        <v>48</v>
+      </c>
+      <c r="D40" s="119">
+        <v>16.5</v>
+      </c>
+      <c r="E40" s="119">
+        <v>11.9</v>
+      </c>
+      <c r="F40" s="119">
+        <v>21.7</v>
+      </c>
+      <c r="J40" s="119">
+        <v>0.74</v>
+      </c>
+      <c r="L40" s="119">
+        <v>7.5</v>
+      </c>
+      <c r="M40" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N40" s="119">
+        <v>5.3439774708589969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C41" s="119">
+        <v>44.9</v>
+      </c>
+      <c r="D41" s="119">
+        <v>19</v>
+      </c>
+      <c r="E41" s="119">
+        <v>16</v>
+      </c>
+      <c r="F41" s="119">
+        <v>18.5</v>
+      </c>
+      <c r="J41" s="119">
+        <v>0.71</v>
+      </c>
+      <c r="L41" s="119">
+        <v>7.4</v>
+      </c>
+      <c r="M41" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N41" s="119">
+        <v>5.2795551872398612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="119" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="119">
+        <v>1623</v>
+      </c>
+      <c r="C42" s="119">
+        <v>49.4</v>
+      </c>
+      <c r="D42" s="119">
+        <v>15.3</v>
+      </c>
+      <c r="E42" s="119">
+        <v>14.3</v>
+      </c>
+      <c r="F42" s="119">
+        <v>19.2</v>
+      </c>
+      <c r="J42" s="119">
+        <v>0.95</v>
+      </c>
+      <c r="L42" s="119">
+        <v>7.4</v>
+      </c>
+      <c r="M42" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N42" s="119">
+        <v>5.2669753527832484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C43" s="120">
+        <v>49</v>
+      </c>
+      <c r="D43" s="120">
+        <v>17</v>
+      </c>
+      <c r="E43" s="120">
+        <v>4.5</v>
+      </c>
+      <c r="F43" s="120">
+        <v>9.6</v>
+      </c>
+      <c r="G43" s="120">
+        <v>10.65</v>
+      </c>
+      <c r="H43" s="120">
+        <v>3.58</v>
+      </c>
+      <c r="I43" s="120">
+        <v>0.24</v>
+      </c>
+      <c r="J43" s="120">
+        <v>3.79</v>
+      </c>
+      <c r="K43" s="120">
+        <v>0.23</v>
+      </c>
+      <c r="L43" s="120">
+        <v>6</v>
+      </c>
+      <c r="M43" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="N43" s="120">
+        <v>4.5778256894375327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C44" s="120">
+        <v>41.2</v>
+      </c>
+      <c r="D44" s="120">
+        <v>11.5</v>
+      </c>
+      <c r="E44" s="120">
+        <v>7.3</v>
+      </c>
+      <c r="F44" s="120">
+        <v>9.1</v>
+      </c>
+      <c r="G44" s="120">
+        <v>17.03</v>
+      </c>
+      <c r="H44" s="120">
+        <v>8.66</v>
+      </c>
+      <c r="J44" s="120">
+        <v>2.04</v>
+      </c>
+      <c r="K44" s="120">
+        <v>0.68</v>
+      </c>
+      <c r="L44" s="120">
+        <v>6.2</v>
+      </c>
+      <c r="M44" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C45" s="120">
+        <v>49.7</v>
+      </c>
+      <c r="D45" s="120">
+        <v>14.8</v>
+      </c>
+      <c r="E45" s="120">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F45" s="120">
+        <v>12.2</v>
+      </c>
+      <c r="G45" s="120">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H45" s="120">
+        <v>0.93</v>
+      </c>
+      <c r="I45" s="120">
+        <v>0.15</v>
+      </c>
+      <c r="J45" s="120">
+        <v>2.42</v>
+      </c>
+      <c r="K45" s="120">
+        <v>0.18</v>
+      </c>
+      <c r="L45" s="120">
+        <v>6.3</v>
+      </c>
+      <c r="M45" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C46" s="120">
+        <v>42.8</v>
+      </c>
+      <c r="D46" s="120">
+        <v>14.8</v>
+      </c>
+      <c r="E46" s="120">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F46" s="120">
+        <v>13.6</v>
+      </c>
+      <c r="G46" s="120">
+        <v>10.47</v>
+      </c>
+      <c r="H46" s="120">
+        <v>2.97</v>
+      </c>
+      <c r="I46" s="120">
+        <v>0.11</v>
+      </c>
+      <c r="J46" s="120">
+        <v>2.17</v>
+      </c>
+      <c r="K46" s="120">
+        <v>2.65</v>
+      </c>
+      <c r="L46" s="120">
+        <v>6.5</v>
+      </c>
+      <c r="M46" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C47" s="120">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D47" s="120">
+        <v>16.5</v>
+      </c>
+      <c r="E47" s="120">
+        <v>1.6</v>
+      </c>
+      <c r="F47" s="120">
+        <v>3.7</v>
+      </c>
+      <c r="G47" s="120">
+        <v>4.21</v>
+      </c>
+      <c r="H47" s="120">
+        <v>0.98</v>
+      </c>
+      <c r="I47" s="120">
+        <v>4.41</v>
+      </c>
+      <c r="J47" s="120">
+        <v>2.25</v>
+      </c>
+      <c r="L47" s="120">
+        <v>5.4</v>
+      </c>
+      <c r="M47" s="120" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C48" s="120">
+        <v>54.8</v>
+      </c>
+      <c r="D48" s="120">
+        <v>14.7</v>
+      </c>
+      <c r="E48" s="120">
+        <v>9.1</v>
+      </c>
+      <c r="F48" s="120">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G48" s="120">
+        <v>5.99</v>
+      </c>
+      <c r="H48" s="120">
+        <v>0.6</v>
+      </c>
+      <c r="I48" s="120">
+        <v>0.85</v>
+      </c>
+      <c r="J48" s="120">
+        <v>3.16</v>
+      </c>
+      <c r="L48" s="120">
+        <v>6.2</v>
+      </c>
+      <c r="M48" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C49" s="120">
+        <v>62.6</v>
+      </c>
+      <c r="D49" s="120">
+        <v>18</v>
+      </c>
+      <c r="E49" s="120">
+        <v>3.3</v>
+      </c>
+      <c r="F49" s="120">
+        <v>6.7</v>
+      </c>
+      <c r="G49" s="120">
+        <v>3.55</v>
+      </c>
+      <c r="H49" s="120">
+        <v>0.63</v>
+      </c>
+      <c r="I49" s="120">
+        <v>1.23</v>
+      </c>
+      <c r="J49" s="120">
+        <v>4.2</v>
+      </c>
+      <c r="L49" s="120">
+        <v>5.8</v>
+      </c>
+      <c r="M49" s="120" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C50" s="120">
+        <v>45.9</v>
+      </c>
+      <c r="D50" s="120">
+        <v>11.5</v>
+      </c>
+      <c r="E50" s="120">
+        <v>13.6</v>
+      </c>
+      <c r="F50" s="120">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G50" s="120">
+        <v>11.66</v>
+      </c>
+      <c r="H50" s="120">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J50" s="120">
+        <v>2.23</v>
+      </c>
+      <c r="K50" s="120">
+        <v>0.2</v>
+      </c>
+      <c r="L50" s="120">
+        <v>6.4</v>
+      </c>
+      <c r="M50" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C51" s="120">
+        <v>39.4</v>
+      </c>
+      <c r="D51" s="120">
+        <v>10.7</v>
+      </c>
+      <c r="E51" s="120">
+        <v>15.5</v>
+      </c>
+      <c r="F51" s="120">
+        <v>16.7</v>
+      </c>
+      <c r="G51" s="120">
+        <v>14.7</v>
+      </c>
+      <c r="J51" s="120">
+        <v>0.63</v>
+      </c>
+      <c r="L51" s="120">
+        <v>6.8</v>
+      </c>
+      <c r="M51" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C52" s="120">
+        <v>73.2</v>
+      </c>
+      <c r="D52" s="120">
+        <v>14.8</v>
+      </c>
+      <c r="E52" s="120">
+        <v>0.31</v>
+      </c>
+      <c r="F52" s="120">
+        <v>1</v>
+      </c>
+      <c r="G52" s="120">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H52" s="120">
+        <v>0.32</v>
+      </c>
+      <c r="I52" s="120">
+        <v>6.05</v>
+      </c>
+      <c r="J52" s="120">
+        <v>2.58</v>
+      </c>
+      <c r="L52" s="120">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M52" s="120" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C53" s="120">
+        <v>48.1</v>
+      </c>
+      <c r="D53" s="120">
+        <v>16.5</v>
+      </c>
+      <c r="E53" s="120">
+        <v>12.3</v>
+      </c>
+      <c r="F53" s="120">
+        <v>21.7</v>
+      </c>
+      <c r="J53" s="120">
+        <v>0.9</v>
+      </c>
+      <c r="L53" s="120">
+        <v>6.9</v>
+      </c>
+      <c r="M53" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C54" s="120">
+        <v>45.1</v>
+      </c>
+      <c r="D54" s="120">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E54" s="120">
+        <v>17.5</v>
+      </c>
+      <c r="F54" s="120">
+        <v>17.5</v>
+      </c>
+      <c r="J54" s="120">
+        <v>1.06</v>
+      </c>
+      <c r="L54" s="120">
+        <v>6.8</v>
+      </c>
+      <c r="M54" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="120">
+        <v>1673</v>
+      </c>
+      <c r="C55" s="120">
+        <v>49.6</v>
+      </c>
+      <c r="D55" s="120">
+        <v>15.4</v>
+      </c>
+      <c r="E55" s="120">
+        <v>14.3</v>
+      </c>
+      <c r="F55" s="120">
+        <v>19.2</v>
+      </c>
+      <c r="J55" s="120">
+        <v>1.29</v>
+      </c>
+      <c r="L55" s="120">
+        <v>6.8</v>
+      </c>
+      <c r="M55" s="120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C56" s="121">
+        <v>49</v>
+      </c>
+      <c r="D56" s="121">
+        <v>16.8</v>
+      </c>
+      <c r="E56" s="121">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F56" s="121">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G56" s="121">
+        <v>10.02</v>
+      </c>
+      <c r="H56" s="121">
+        <v>3.4</v>
+      </c>
+      <c r="I56" s="121">
+        <v>0.59</v>
+      </c>
+      <c r="J56" s="121">
+        <v>4.04</v>
+      </c>
+      <c r="K56" s="121">
+        <v>0.21</v>
+      </c>
+      <c r="L56" s="121">
+        <v>5.6</v>
+      </c>
+      <c r="M56" s="121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C57" s="121">
+        <v>41.9</v>
+      </c>
+      <c r="D57" s="121">
+        <v>11.7</v>
+      </c>
+      <c r="E57" s="121">
+        <v>7.3</v>
+      </c>
+      <c r="F57" s="121">
+        <v>9.4</v>
+      </c>
+      <c r="G57" s="121">
+        <v>15.95</v>
+      </c>
+      <c r="H57" s="121">
+        <v>8.56</v>
+      </c>
+      <c r="I57" s="121">
+        <v>0.17</v>
+      </c>
+      <c r="J57" s="121">
+        <v>3.09</v>
+      </c>
+      <c r="K57" s="121">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L57" s="121">
+        <v>5.6</v>
+      </c>
+      <c r="M57" s="121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C58" s="121">
+        <v>50</v>
+      </c>
+      <c r="D58" s="121">
+        <v>14.8</v>
+      </c>
+      <c r="E58" s="121">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F58" s="121">
+        <v>12.3</v>
+      </c>
+      <c r="G58" s="121">
+        <v>8.85</v>
+      </c>
+      <c r="H58" s="121">
+        <v>0.9</v>
+      </c>
+      <c r="I58" s="121">
+        <v>0.24</v>
+      </c>
+      <c r="J58" s="121">
+        <v>3.01</v>
+      </c>
+      <c r="K58" s="121">
+        <v>0.18</v>
+      </c>
+      <c r="L58" s="121">
+        <v>5.9</v>
+      </c>
+      <c r="M58" s="121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C59" s="121">
+        <v>42.5</v>
+      </c>
+      <c r="D59" s="121">
+        <v>14.8</v>
+      </c>
+      <c r="E59" s="121">
+        <v>8.4</v>
+      </c>
+      <c r="F59" s="121">
+        <v>14.6</v>
+      </c>
+      <c r="G59" s="121">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H59" s="121">
+        <v>2.8</v>
+      </c>
+      <c r="J59" s="121">
+        <v>2.7</v>
+      </c>
+      <c r="K59" s="121">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="L59" s="121">
+        <v>6</v>
+      </c>
+      <c r="M59" s="121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C60" s="121">
+        <v>66</v>
+      </c>
+      <c r="D60" s="121">
+        <v>16.5</v>
+      </c>
+      <c r="E60" s="121">
+        <v>1.7</v>
+      </c>
+      <c r="F60" s="121">
+        <v>3.4</v>
+      </c>
+      <c r="G60" s="121">
+        <v>3.82</v>
+      </c>
+      <c r="H60" s="121">
+        <v>0.94</v>
+      </c>
+      <c r="I60" s="121">
+        <v>4.33</v>
+      </c>
+      <c r="J60" s="121">
+        <v>2.76</v>
+      </c>
+      <c r="L60" s="121">
+        <v>5</v>
+      </c>
+      <c r="M60" s="121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C61" s="121">
+        <v>55.4</v>
+      </c>
+      <c r="D61" s="121">
+        <v>14.6</v>
+      </c>
+      <c r="E61" s="121">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F61" s="121">
+        <v>9.6</v>
+      </c>
+      <c r="G61" s="121">
+        <v>5.5</v>
+      </c>
+      <c r="H61" s="121">
+        <v>0.59</v>
+      </c>
+      <c r="I61" s="121">
+        <v>0.75</v>
+      </c>
+      <c r="J61" s="121">
+        <v>4.01</v>
+      </c>
+      <c r="L61" s="121">
+        <v>5.7</v>
+      </c>
+      <c r="M61" s="121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C62" s="121">
+        <v>62.3</v>
+      </c>
+      <c r="D62" s="121">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E62" s="121">
+        <v>3.3</v>
+      </c>
+      <c r="F62" s="121">
+        <v>6.6</v>
+      </c>
+      <c r="G62" s="121">
+        <v>3.28</v>
+      </c>
+      <c r="H62" s="121">
+        <v>0.59</v>
+      </c>
+      <c r="I62" s="121">
+        <v>0.97</v>
+      </c>
+      <c r="J62" s="121">
+        <v>5.74</v>
+      </c>
+      <c r="L62" s="121">
+        <v>5.3</v>
+      </c>
+      <c r="M62" s="121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C63" s="121">
+        <v>46.1</v>
+      </c>
+      <c r="D63" s="121">
+        <v>11.5</v>
+      </c>
+      <c r="E63" s="121">
+        <v>13.8</v>
+      </c>
+      <c r="F63" s="121">
+        <v>9.9</v>
+      </c>
+      <c r="G63" s="121">
+        <v>11.37</v>
+      </c>
+      <c r="H63" s="121">
+        <v>2.39</v>
+      </c>
+      <c r="I63" s="121">
+        <v>0.16</v>
+      </c>
+      <c r="J63" s="121">
+        <v>2.72</v>
+      </c>
+      <c r="K63" s="121">
+        <v>0.19</v>
+      </c>
+      <c r="L63" s="121">
+        <v>6</v>
+      </c>
+      <c r="M63" s="121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C64" s="121">
+        <v>57.7</v>
+      </c>
+      <c r="D64" s="121">
+        <v>22.2</v>
+      </c>
+      <c r="E64" s="121">
+        <v>2.1</v>
+      </c>
+      <c r="F64" s="121">
+        <v>4.8</v>
+      </c>
+      <c r="G64" s="121">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H64" s="121">
+        <v>1.64</v>
+      </c>
+      <c r="I64" s="121">
+        <v>1.6</v>
+      </c>
+      <c r="J64" s="121">
+        <v>5.83</v>
+      </c>
+      <c r="K64" s="121">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L64" s="121">
+        <v>5.8</v>
+      </c>
+      <c r="M64" s="121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C65" s="121">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D65" s="121">
+        <v>10.9</v>
+      </c>
+      <c r="E65" s="121">
+        <v>15.6</v>
+      </c>
+      <c r="F65" s="121">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G65" s="121">
+        <v>14.22</v>
+      </c>
+      <c r="J65" s="121">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L65" s="121">
+        <v>6.3</v>
+      </c>
+      <c r="M65" s="121" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C66" s="121">
+        <v>75</v>
+      </c>
+      <c r="D66" s="121">
+        <v>13.3</v>
+      </c>
+      <c r="E66" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="F66" s="121">
+        <v>0.9</v>
+      </c>
+      <c r="G66" s="121">
+        <v>0.93</v>
+      </c>
+      <c r="H66" s="121">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I66" s="121">
+        <v>5.81</v>
+      </c>
+      <c r="J66" s="121">
+        <v>2.97</v>
+      </c>
+      <c r="L66" s="121">
+        <v>4.8</v>
+      </c>
+      <c r="M66" s="121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C67" s="121">
+        <v>48.1</v>
+      </c>
+      <c r="D67" s="121">
+        <v>16.7</v>
+      </c>
+      <c r="E67" s="121">
+        <v>12.1</v>
+      </c>
+      <c r="F67" s="121">
+        <v>22.2</v>
+      </c>
+      <c r="J67" s="121">
+        <v>1.38</v>
+      </c>
+      <c r="L67" s="121">
+        <v>6.4</v>
+      </c>
+      <c r="M67" s="121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C68" s="121">
+        <v>45.4</v>
+      </c>
+      <c r="D68" s="121">
+        <v>18.8</v>
+      </c>
+      <c r="E68" s="121">
+        <v>17.8</v>
+      </c>
+      <c r="F68" s="121">
+        <v>17.5</v>
+      </c>
+      <c r="J68" s="121">
+        <v>1.44</v>
+      </c>
+      <c r="L68" s="121">
+        <v>6.3</v>
+      </c>
+      <c r="M68" s="121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="121">
+        <v>1723</v>
+      </c>
+      <c r="C69" s="121">
+        <v>50</v>
+      </c>
+      <c r="D69" s="121">
+        <v>15.5</v>
+      </c>
+      <c r="E69" s="121">
+        <v>14.5</v>
+      </c>
+      <c r="F69" s="121">
+        <v>19.2</v>
+      </c>
+      <c r="J69" s="121">
+        <v>1.43</v>
+      </c>
+      <c r="L69" s="121">
+        <v>6.2</v>
+      </c>
+      <c r="M69" s="121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C70" s="54">
+        <v>49.2</v>
+      </c>
+      <c r="D70" s="54">
+        <v>16.8</v>
+      </c>
+      <c r="E70" s="54">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F70" s="54">
+        <v>9.6</v>
+      </c>
+      <c r="G70" s="54">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="H70" s="54">
+        <v>3.46</v>
+      </c>
+      <c r="I70" s="54">
+        <v>0.42</v>
+      </c>
+      <c r="J70" s="54">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K70" s="54">
+        <v>0.22</v>
+      </c>
+      <c r="L70" s="54">
+        <v>5</v>
+      </c>
+      <c r="M70" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C71" s="54">
+        <v>42.3</v>
+      </c>
+      <c r="D71" s="54">
+        <v>11.5</v>
+      </c>
+      <c r="E71" s="54">
+        <v>7.2</v>
+      </c>
+      <c r="F71" s="54">
+        <v>9.4</v>
+      </c>
+      <c r="G71" s="54">
+        <v>16.62</v>
+      </c>
+      <c r="H71" s="54">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="J71" s="54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K71" s="54">
+        <v>0.62</v>
+      </c>
+      <c r="L71" s="54">
+        <v>5</v>
+      </c>
+      <c r="M71" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C72" s="54">
+        <v>50.5</v>
+      </c>
+      <c r="D72" s="54">
+        <v>14.9</v>
+      </c>
+      <c r="E72" s="54">
+        <v>8.6</v>
+      </c>
+      <c r="F72" s="54">
+        <v>12.4</v>
+      </c>
+      <c r="G72" s="54">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H72" s="54">
+        <v>0.92</v>
+      </c>
+      <c r="J72" s="54">
+        <v>3.23</v>
+      </c>
+      <c r="K72" s="54">
+        <v>0.17</v>
+      </c>
+      <c r="L72" s="54">
+        <v>5.2</v>
+      </c>
+      <c r="M72" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C73" s="54">
+        <v>41.8</v>
+      </c>
+      <c r="D73" s="54">
+        <v>14.6</v>
+      </c>
+      <c r="E73" s="54">
+        <v>8.4</v>
+      </c>
+      <c r="F73" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="G73" s="54">
+        <v>10.27</v>
+      </c>
+      <c r="H73" s="54">
+        <v>2.9</v>
+      </c>
+      <c r="J73" s="54">
+        <v>3.45</v>
+      </c>
+      <c r="K73" s="54">
+        <v>2.62</v>
+      </c>
+      <c r="L73" s="54">
+        <v>5.9</v>
+      </c>
+      <c r="M73" s="54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C74" s="54">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D74" s="54">
+        <v>16.2</v>
+      </c>
+      <c r="E74" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="F74" s="54">
+        <v>3.3</v>
+      </c>
+      <c r="G74" s="54">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H74" s="54">
+        <v>0.97</v>
+      </c>
+      <c r="I74" s="54">
+        <v>4.34</v>
+      </c>
+      <c r="J74" s="54">
+        <v>3.06</v>
+      </c>
+      <c r="L74" s="54">
+        <v>4.7</v>
+      </c>
+      <c r="M74" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C75" s="54">
+        <v>53.8</v>
+      </c>
+      <c r="D75" s="54">
+        <v>14.6</v>
+      </c>
+      <c r="E75" s="54">
+        <v>9.1</v>
+      </c>
+      <c r="F75" s="54">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G75" s="54">
+        <v>6</v>
+      </c>
+      <c r="H75" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="I75" s="54">
+        <v>0.59</v>
+      </c>
+      <c r="J75" s="54">
+        <v>5.33</v>
+      </c>
+      <c r="L75" s="54">
+        <v>5.2</v>
+      </c>
+      <c r="M75" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C76" s="54">
+        <v>62.3</v>
+      </c>
+      <c r="D76" s="54">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E76" s="54">
+        <v>3.4</v>
+      </c>
+      <c r="F76" s="54">
+        <v>6.6</v>
+      </c>
+      <c r="G76" s="54">
+        <v>3.37</v>
+      </c>
+      <c r="H76" s="54">
+        <v>0.63</v>
+      </c>
+      <c r="I76" s="54">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J76" s="54">
+        <v>5.33</v>
+      </c>
+      <c r="L76" s="54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M76" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C77" s="54">
+        <v>46.6</v>
+      </c>
+      <c r="D77" s="54">
+        <v>11.7</v>
+      </c>
+      <c r="E77" s="54">
+        <v>13.6</v>
+      </c>
+      <c r="F77" s="54">
+        <v>9.9</v>
+      </c>
+      <c r="G77" s="54">
+        <v>11.04</v>
+      </c>
+      <c r="H77" s="54">
+        <v>2.41</v>
+      </c>
+      <c r="J77" s="54">
+        <v>2.96</v>
+      </c>
+      <c r="K77" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="L77" s="54">
+        <v>5.3</v>
+      </c>
+      <c r="M77" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C78" s="54">
+        <v>58.4</v>
+      </c>
+      <c r="D78" s="54">
+        <v>22</v>
+      </c>
+      <c r="E78" s="54">
+        <v>2.1</v>
+      </c>
+      <c r="F78" s="54">
+        <v>4.8</v>
+      </c>
+      <c r="G78" s="54">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="H78" s="54">
+        <v>1.72</v>
+      </c>
+      <c r="I78" s="54">
+        <v>1.21</v>
+      </c>
+      <c r="J78" s="54">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K78" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="L78" s="54">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M78" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C79" s="54">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D79" s="54">
+        <v>11</v>
+      </c>
+      <c r="E79" s="54">
+        <v>15.3</v>
+      </c>
+      <c r="F79" s="54">
+        <v>17.2</v>
+      </c>
+      <c r="G79" s="54">
+        <v>13.83</v>
+      </c>
+      <c r="J79" s="54">
+        <v>0.96</v>
+      </c>
+      <c r="L79" s="54">
+        <v>5.8</v>
+      </c>
+      <c r="M79" s="54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C80" s="54">
+        <v>74.8</v>
+      </c>
+      <c r="D80" s="54">
+        <v>15.1</v>
+      </c>
+      <c r="E80" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="F80" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="G80" s="54">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H80" s="54">
+        <v>0.32</v>
+      </c>
+      <c r="I80" s="54">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J80" s="54">
+        <v>3.52</v>
+      </c>
+      <c r="L80" s="54">
+        <v>4.5</v>
+      </c>
+      <c r="M80" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C81" s="54">
+        <v>48.4</v>
+      </c>
+      <c r="D81" s="54">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E81" s="54">
+        <v>12</v>
+      </c>
+      <c r="F81" s="54">
+        <v>22.2</v>
+      </c>
+      <c r="J81" s="54">
+        <v>1.23</v>
+      </c>
+      <c r="L81" s="54">
+        <v>5.8</v>
+      </c>
+      <c r="M81" s="54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C82" s="54">
+        <v>45.6</v>
+      </c>
+      <c r="D82" s="54">
+        <v>19</v>
+      </c>
+      <c r="E82" s="54">
+        <v>17.3</v>
+      </c>
+      <c r="F82" s="54">
+        <v>17.7</v>
+      </c>
+      <c r="J82" s="54">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L82" s="54">
+        <v>5.7</v>
+      </c>
+      <c r="M82" s="54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="54">
+        <v>1773</v>
+      </c>
+      <c r="C83" s="54">
+        <v>48.9</v>
+      </c>
+      <c r="D83" s="54">
+        <v>15.2</v>
+      </c>
+      <c r="E83" s="54">
+        <v>14.2</v>
+      </c>
+      <c r="F83" s="54">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J83" s="54">
+        <v>2.98</v>
+      </c>
+      <c r="L83" s="54">
+        <v>5.7</v>
+      </c>
+      <c r="M83" s="54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M111"/>
   <sheetViews>
@@ -23554,24 +28547,24 @@
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="85" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>1194</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="84" t="s">
         <v>1192</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="84" t="s">
         <v>1195</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="84" t="s">
         <v>1193</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="84" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -24186,7 +29179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -24198,183 +29191,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="87" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="113" t="s">
         <v>1211</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="120"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="115"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="91" t="s">
         <v>1200</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="91" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="91" t="s">
         <v>1202</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="91" t="s">
         <v>1203</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="91" t="s">
         <v>1204</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="91" t="s">
         <v>1205</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="91" t="s">
         <v>1206</v>
       </c>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="91" t="s">
         <v>1207</v>
       </c>
-      <c r="M4" s="96" t="s">
+      <c r="M4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="91" t="s">
         <v>1208</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="91" t="s">
         <v>1209</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="91" t="s">
         <v>1210</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="93" t="s">
         <v>1211</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="86">
         <v>2.4577800000000001</v>
       </c>
-      <c r="C5" s="91">
+      <c r="C5" s="86">
         <v>6.9083200000000007</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="86">
         <v>13.24034</v>
       </c>
-      <c r="E5" s="91">
+      <c r="E5" s="86">
         <v>49.302419999999998</v>
       </c>
-      <c r="F5" s="91">
+      <c r="F5" s="86">
         <v>0.18066000000000002</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="86">
         <v>11.86936</v>
       </c>
-      <c r="H5" s="91">
+      <c r="H5" s="86">
         <v>13.23658</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="86">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="J5" s="91">
+      <c r="J5" s="86">
         <v>0.16421999999999998</v>
       </c>
-      <c r="K5" s="91">
+      <c r="K5" s="86">
         <v>0.26403999999999994</v>
       </c>
-      <c r="L5" s="91">
+      <c r="L5" s="86">
         <v>1.92496</v>
       </c>
-      <c r="M5" s="91">
+      <c r="M5" s="86">
         <v>0.22967999999999997</v>
       </c>
-      <c r="N5" s="91">
+      <c r="N5" s="86">
         <v>3.0160000000000003E-2</v>
       </c>
-      <c r="O5" s="91">
+      <c r="O5" s="86">
         <v>2.4879999999999999E-2</v>
       </c>
-      <c r="P5" s="91">
+      <c r="P5" s="86">
         <v>7.5599999999999999E-3</v>
       </c>
-      <c r="Q5" s="94">
+      <c r="Q5" s="89">
         <v>99.848100000000002</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="94" t="s">
         <v>1213</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="88">
         <v>6.7292473576173392E-2</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="88">
         <v>9.9818470234721637E-2</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="88">
         <v>0.25223990168091937</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="88">
         <v>0.33455696375953653</v>
       </c>
-      <c r="F6" s="93">
+      <c r="F6" s="88">
         <v>2.0429586388372806E-2</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="88">
         <v>0.21374843391239151</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="88">
         <v>0.32099133477400937</v>
       </c>
-      <c r="I6" s="93">
+      <c r="I6" s="88">
         <v>1.0559356040971437E-3</v>
       </c>
-      <c r="J6" s="93">
+      <c r="J6" s="88">
         <v>6.916429714816737E-3</v>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="88">
         <v>3.0121420949218163E-3</v>
       </c>
-      <c r="L6" s="93">
+      <c r="L6" s="88">
         <v>1.071624934387027E-2</v>
       </c>
-      <c r="M6" s="93">
+      <c r="M6" s="88">
         <v>1.160978035967951E-2</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="88">
         <v>5.0097904147778484E-3</v>
       </c>
-      <c r="O6" s="93">
+      <c r="O6" s="88">
         <v>1.8212632978237926E-3</v>
       </c>
-      <c r="P6" s="93">
+      <c r="P6" s="88">
         <v>3.2446879665077202E-3</v>
       </c>
-      <c r="Q6" s="95">
+      <c r="Q6" s="90">
         <v>0.25994308992546772</v>
       </c>
     </row>
@@ -24388,497 +29381,6 @@
     <mergeCell ref="B3:Q3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:V9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="60.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="90" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="102" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D3" s="102" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E3" s="102" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F3" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="102" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K3" s="102" t="s">
-        <v>1203</v>
-      </c>
-      <c r="L3" s="102" t="s">
-        <v>1205</v>
-      </c>
-      <c r="M3" s="102" t="s">
-        <v>1209</v>
-      </c>
-      <c r="N3" s="102" t="s">
-        <v>1210</v>
-      </c>
-      <c r="O3" s="102" t="s">
-        <v>1222</v>
-      </c>
-      <c r="P3" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="100" t="s">
-        <v>1223</v>
-      </c>
-      <c r="R3" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="S3" s="100" t="s">
-        <v>1224</v>
-      </c>
-      <c r="T3" s="100" t="s">
-        <v>1225</v>
-      </c>
-      <c r="U3" s="100" t="s">
-        <v>1226</v>
-      </c>
-      <c r="V3" s="102" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="101" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C4" s="103">
-        <v>47.8</v>
-      </c>
-      <c r="D4" s="103">
-        <v>1.77</v>
-      </c>
-      <c r="E4" s="103">
-        <v>17.05</v>
-      </c>
-      <c r="F4" s="103">
-        <v>8.43</v>
-      </c>
-      <c r="G4" s="103">
-        <v>0.17</v>
-      </c>
-      <c r="H4" s="103">
-        <v>5.19</v>
-      </c>
-      <c r="I4" s="103">
-        <v>10.3</v>
-      </c>
-      <c r="J4" s="103">
-        <v>3.87</v>
-      </c>
-      <c r="K4" s="103">
-        <v>1.85</v>
-      </c>
-      <c r="L4" s="103">
-        <v>0.6</v>
-      </c>
-      <c r="M4" s="103">
-        <v>0</v>
-      </c>
-      <c r="N4" s="103">
-        <v>0</v>
-      </c>
-      <c r="O4" s="103">
-        <v>0</v>
-      </c>
-      <c r="P4" s="104">
-        <v>97.03</v>
-      </c>
-      <c r="Q4" s="103" t="s">
-        <v>1227</v>
-      </c>
-      <c r="R4" s="103" t="s">
-        <v>1228</v>
-      </c>
-      <c r="S4" s="103">
-        <v>207</v>
-      </c>
-      <c r="T4" s="103" t="s">
-        <v>1227</v>
-      </c>
-      <c r="U4" s="103" t="s">
-        <v>1227</v>
-      </c>
-      <c r="V4" s="103" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B5" s="101" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C5" s="103">
-        <v>49.27</v>
-      </c>
-      <c r="D5" s="103">
-        <v>0.84</v>
-      </c>
-      <c r="E5" s="103">
-        <v>16.11</v>
-      </c>
-      <c r="F5" s="103">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="G5" s="103">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="103">
-        <v>9.56</v>
-      </c>
-      <c r="I5" s="103">
-        <v>12.54</v>
-      </c>
-      <c r="J5" s="103">
-        <v>2.12</v>
-      </c>
-      <c r="K5" s="103">
-        <v>0.03</v>
-      </c>
-      <c r="L5" s="103" t="s">
-        <v>1227</v>
-      </c>
-      <c r="M5" s="103">
-        <v>0</v>
-      </c>
-      <c r="N5" s="103">
-        <v>0</v>
-      </c>
-      <c r="O5" s="103">
-        <v>0</v>
-      </c>
-      <c r="P5" s="104">
-        <f t="shared" ref="P5:P9" si="0">SUM(C5:O5)</f>
-        <v>98.94</v>
-      </c>
-      <c r="Q5" s="103" t="s">
-        <v>1227</v>
-      </c>
-      <c r="R5" s="103">
-        <v>1010</v>
-      </c>
-      <c r="S5" s="103" t="s">
-        <v>1227</v>
-      </c>
-      <c r="T5" s="103" t="s">
-        <v>1227</v>
-      </c>
-      <c r="U5" s="103" t="s">
-        <v>1227</v>
-      </c>
-      <c r="V5" s="103" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="101" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C6" s="103">
-        <v>50.4</v>
-      </c>
-      <c r="D6" s="103">
-        <v>1.68</v>
-      </c>
-      <c r="E6" s="103">
-        <v>15.89</v>
-      </c>
-      <c r="F6" s="103">
-        <v>9.1</v>
-      </c>
-      <c r="G6" s="103">
-        <v>0.16</v>
-      </c>
-      <c r="H6" s="103">
-        <v>6.84</v>
-      </c>
-      <c r="I6" s="103">
-        <v>10.84</v>
-      </c>
-      <c r="J6" s="103">
-        <v>3.1</v>
-      </c>
-      <c r="K6" s="103">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L6" s="103">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M6" s="103">
-        <v>0</v>
-      </c>
-      <c r="N6" s="103">
-        <v>0</v>
-      </c>
-      <c r="O6" s="103">
-        <v>0</v>
-      </c>
-      <c r="P6" s="104">
-        <f t="shared" si="0"/>
-        <v>98.88</v>
-      </c>
-      <c r="Q6" s="103">
-        <v>650</v>
-      </c>
-      <c r="R6" s="103">
-        <v>890</v>
-      </c>
-      <c r="S6" s="103">
-        <v>4940</v>
-      </c>
-      <c r="T6" s="103">
-        <v>1.58</v>
-      </c>
-      <c r="U6" s="103">
-        <v>36</v>
-      </c>
-      <c r="V6" s="103" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="101" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C7" s="103">
-        <v>49.09</v>
-      </c>
-      <c r="D7" s="103">
-        <v>1.37</v>
-      </c>
-      <c r="E7" s="103">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="F7" s="103">
-        <v>7.68</v>
-      </c>
-      <c r="G7" s="103">
-        <v>0.12</v>
-      </c>
-      <c r="H7" s="103">
-        <v>8.02</v>
-      </c>
-      <c r="I7" s="103">
-        <v>12.63</v>
-      </c>
-      <c r="J7" s="103">
-        <v>2.72</v>
-      </c>
-      <c r="K7" s="103">
-        <v>0.59</v>
-      </c>
-      <c r="L7" s="103">
-        <v>0.23</v>
-      </c>
-      <c r="M7" s="103">
-        <v>0</v>
-      </c>
-      <c r="N7" s="103">
-        <v>0</v>
-      </c>
-      <c r="O7" s="103">
-        <v>0</v>
-      </c>
-      <c r="P7" s="104">
-        <f t="shared" si="0"/>
-        <v>99.44</v>
-      </c>
-      <c r="Q7" s="103">
-        <v>720</v>
-      </c>
-      <c r="R7" s="103">
-        <v>700</v>
-      </c>
-      <c r="S7" s="103">
-        <v>435</v>
-      </c>
-      <c r="T7" s="103">
-        <v>1.38</v>
-      </c>
-      <c r="U7" s="103">
-        <v>33</v>
-      </c>
-      <c r="V7" s="103" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="101" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C8" s="103">
-        <v>48.18</v>
-      </c>
-      <c r="D8" s="103">
-        <v>1.91</v>
-      </c>
-      <c r="E8" s="103">
-        <v>18.170000000000002</v>
-      </c>
-      <c r="F8" s="103">
-        <v>6.81</v>
-      </c>
-      <c r="G8" s="103">
-        <v>0.08</v>
-      </c>
-      <c r="H8" s="103">
-        <v>5.9</v>
-      </c>
-      <c r="I8" s="103">
-        <v>10.85</v>
-      </c>
-      <c r="J8" s="103">
-        <v>4.24</v>
-      </c>
-      <c r="K8" s="103">
-        <v>1.76</v>
-      </c>
-      <c r="L8" s="103">
-        <v>0.66</v>
-      </c>
-      <c r="M8" s="103">
-        <v>0</v>
-      </c>
-      <c r="N8" s="103">
-        <v>0</v>
-      </c>
-      <c r="O8" s="103">
-        <v>0</v>
-      </c>
-      <c r="P8" s="104">
-        <f t="shared" si="0"/>
-        <v>98.559999999999988</v>
-      </c>
-      <c r="Q8" s="103">
-        <v>777</v>
-      </c>
-      <c r="R8" s="103">
-        <v>776</v>
-      </c>
-      <c r="S8" s="103">
-        <v>1356</v>
-      </c>
-      <c r="T8" s="103">
-        <v>4.57</v>
-      </c>
-      <c r="U8" s="103">
-        <v>109</v>
-      </c>
-      <c r="V8" s="103" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="101" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C9" s="103">
-        <v>49.66</v>
-      </c>
-      <c r="D9" s="103">
-        <v>1.81</v>
-      </c>
-      <c r="E9" s="103">
-        <v>17.239999999999998</v>
-      </c>
-      <c r="F9" s="103">
-        <v>7.68</v>
-      </c>
-      <c r="G9" s="103">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H9" s="103">
-        <v>7.02</v>
-      </c>
-      <c r="I9" s="103">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="J9" s="103">
-        <v>3.65</v>
-      </c>
-      <c r="K9" s="103">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="L9" s="103">
-        <v>0.42</v>
-      </c>
-      <c r="M9" s="103">
-        <v>0</v>
-      </c>
-      <c r="N9" s="103">
-        <v>0</v>
-      </c>
-      <c r="O9" s="103">
-        <v>0</v>
-      </c>
-      <c r="P9" s="104">
-        <f t="shared" si="0"/>
-        <v>98.74</v>
-      </c>
-      <c r="Q9" s="103">
-        <v>767</v>
-      </c>
-      <c r="R9" s="103">
-        <v>708</v>
-      </c>
-      <c r="S9" s="103">
-        <v>799</v>
-      </c>
-      <c r="T9" s="103">
-        <v>2.64</v>
-      </c>
-      <c r="U9" s="103">
-        <v>60</v>
-      </c>
-      <c r="V9" s="103" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -25524,11 +30026,504 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="60.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="85" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="97" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="97" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L3" s="97" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M3" s="97" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O3" s="97" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P3" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="95" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R3" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="S3" s="95" t="s">
+        <v>1224</v>
+      </c>
+      <c r="T3" s="95" t="s">
+        <v>1225</v>
+      </c>
+      <c r="U3" s="95" t="s">
+        <v>1226</v>
+      </c>
+      <c r="V3" s="97" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B4" s="96" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C4" s="98">
+        <v>47.8</v>
+      </c>
+      <c r="D4" s="98">
+        <v>1.77</v>
+      </c>
+      <c r="E4" s="98">
+        <v>17.05</v>
+      </c>
+      <c r="F4" s="98">
+        <v>8.43</v>
+      </c>
+      <c r="G4" s="98">
+        <v>0.17</v>
+      </c>
+      <c r="H4" s="98">
+        <v>5.19</v>
+      </c>
+      <c r="I4" s="98">
+        <v>10.3</v>
+      </c>
+      <c r="J4" s="98">
+        <v>3.87</v>
+      </c>
+      <c r="K4" s="98">
+        <v>1.85</v>
+      </c>
+      <c r="L4" s="98">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="98">
+        <v>0</v>
+      </c>
+      <c r="N4" s="98">
+        <v>0</v>
+      </c>
+      <c r="O4" s="98">
+        <v>0</v>
+      </c>
+      <c r="P4" s="99">
+        <v>97.03</v>
+      </c>
+      <c r="Q4" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R4" s="98" t="s">
+        <v>1228</v>
+      </c>
+      <c r="S4" s="98">
+        <v>207</v>
+      </c>
+      <c r="T4" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="U4" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="V4" s="98" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B5" s="96" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C5" s="98">
+        <v>49.27</v>
+      </c>
+      <c r="D5" s="98">
+        <v>0.84</v>
+      </c>
+      <c r="E5" s="98">
+        <v>16.11</v>
+      </c>
+      <c r="F5" s="98">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="G5" s="98">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="98">
+        <v>9.56</v>
+      </c>
+      <c r="I5" s="98">
+        <v>12.54</v>
+      </c>
+      <c r="J5" s="98">
+        <v>2.12</v>
+      </c>
+      <c r="K5" s="98">
+        <v>0.03</v>
+      </c>
+      <c r="L5" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="M5" s="98">
+        <v>0</v>
+      </c>
+      <c r="N5" s="98">
+        <v>0</v>
+      </c>
+      <c r="O5" s="98">
+        <v>0</v>
+      </c>
+      <c r="P5" s="99">
+        <f t="shared" ref="P5:P9" si="0">SUM(C5:O5)</f>
+        <v>98.94</v>
+      </c>
+      <c r="Q5" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R5" s="98">
+        <v>1010</v>
+      </c>
+      <c r="S5" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="T5" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="U5" s="98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="V5" s="98" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B6" s="96" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C6" s="98">
+        <v>50.4</v>
+      </c>
+      <c r="D6" s="98">
+        <v>1.68</v>
+      </c>
+      <c r="E6" s="98">
+        <v>15.89</v>
+      </c>
+      <c r="F6" s="98">
+        <v>9.1</v>
+      </c>
+      <c r="G6" s="98">
+        <v>0.16</v>
+      </c>
+      <c r="H6" s="98">
+        <v>6.84</v>
+      </c>
+      <c r="I6" s="98">
+        <v>10.84</v>
+      </c>
+      <c r="J6" s="98">
+        <v>3.1</v>
+      </c>
+      <c r="K6" s="98">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L6" s="98">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M6" s="98">
+        <v>0</v>
+      </c>
+      <c r="N6" s="98">
+        <v>0</v>
+      </c>
+      <c r="O6" s="98">
+        <v>0</v>
+      </c>
+      <c r="P6" s="99">
+        <f t="shared" si="0"/>
+        <v>98.88</v>
+      </c>
+      <c r="Q6" s="98">
+        <v>650</v>
+      </c>
+      <c r="R6" s="98">
+        <v>890</v>
+      </c>
+      <c r="S6" s="98">
+        <v>4940</v>
+      </c>
+      <c r="T6" s="98">
+        <v>1.58</v>
+      </c>
+      <c r="U6" s="98">
+        <v>36</v>
+      </c>
+      <c r="V6" s="98" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B7" s="96" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C7" s="98">
+        <v>49.09</v>
+      </c>
+      <c r="D7" s="98">
+        <v>1.37</v>
+      </c>
+      <c r="E7" s="98">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="F7" s="98">
+        <v>7.68</v>
+      </c>
+      <c r="G7" s="98">
+        <v>0.12</v>
+      </c>
+      <c r="H7" s="98">
+        <v>8.02</v>
+      </c>
+      <c r="I7" s="98">
+        <v>12.63</v>
+      </c>
+      <c r="J7" s="98">
+        <v>2.72</v>
+      </c>
+      <c r="K7" s="98">
+        <v>0.59</v>
+      </c>
+      <c r="L7" s="98">
+        <v>0.23</v>
+      </c>
+      <c r="M7" s="98">
+        <v>0</v>
+      </c>
+      <c r="N7" s="98">
+        <v>0</v>
+      </c>
+      <c r="O7" s="98">
+        <v>0</v>
+      </c>
+      <c r="P7" s="99">
+        <f t="shared" si="0"/>
+        <v>99.44</v>
+      </c>
+      <c r="Q7" s="98">
+        <v>720</v>
+      </c>
+      <c r="R7" s="98">
+        <v>700</v>
+      </c>
+      <c r="S7" s="98">
+        <v>435</v>
+      </c>
+      <c r="T7" s="98">
+        <v>1.38</v>
+      </c>
+      <c r="U7" s="98">
+        <v>33</v>
+      </c>
+      <c r="V7" s="98" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B8" s="96" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C8" s="98">
+        <v>48.18</v>
+      </c>
+      <c r="D8" s="98">
+        <v>1.91</v>
+      </c>
+      <c r="E8" s="98">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="F8" s="98">
+        <v>6.81</v>
+      </c>
+      <c r="G8" s="98">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="98">
+        <v>5.9</v>
+      </c>
+      <c r="I8" s="98">
+        <v>10.85</v>
+      </c>
+      <c r="J8" s="98">
+        <v>4.24</v>
+      </c>
+      <c r="K8" s="98">
+        <v>1.76</v>
+      </c>
+      <c r="L8" s="98">
+        <v>0.66</v>
+      </c>
+      <c r="M8" s="98">
+        <v>0</v>
+      </c>
+      <c r="N8" s="98">
+        <v>0</v>
+      </c>
+      <c r="O8" s="98">
+        <v>0</v>
+      </c>
+      <c r="P8" s="99">
+        <f t="shared" si="0"/>
+        <v>98.559999999999988</v>
+      </c>
+      <c r="Q8" s="98">
+        <v>777</v>
+      </c>
+      <c r="R8" s="98">
+        <v>776</v>
+      </c>
+      <c r="S8" s="98">
+        <v>1356</v>
+      </c>
+      <c r="T8" s="98">
+        <v>4.57</v>
+      </c>
+      <c r="U8" s="98">
+        <v>109</v>
+      </c>
+      <c r="V8" s="98" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B9" s="96" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C9" s="98">
+        <v>49.66</v>
+      </c>
+      <c r="D9" s="98">
+        <v>1.81</v>
+      </c>
+      <c r="E9" s="98">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="F9" s="98">
+        <v>7.68</v>
+      </c>
+      <c r="G9" s="98">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H9" s="98">
+        <v>7.02</v>
+      </c>
+      <c r="I9" s="98">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="J9" s="98">
+        <v>3.65</v>
+      </c>
+      <c r="K9" s="98">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L9" s="98">
+        <v>0.42</v>
+      </c>
+      <c r="M9" s="98">
+        <v>0</v>
+      </c>
+      <c r="N9" s="98">
+        <v>0</v>
+      </c>
+      <c r="O9" s="98">
+        <v>0</v>
+      </c>
+      <c r="P9" s="99">
+        <f t="shared" si="0"/>
+        <v>98.74</v>
+      </c>
+      <c r="Q9" s="98">
+        <v>767</v>
+      </c>
+      <c r="R9" s="98">
+        <v>708</v>
+      </c>
+      <c r="S9" s="98">
+        <v>799</v>
+      </c>
+      <c r="T9" s="98">
+        <v>2.64</v>
+      </c>
+      <c r="U9" s="98">
+        <v>60</v>
+      </c>
+      <c r="V9" s="98" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -25816,7 +30811,7 @@
   <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B1" sqref="B1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -30152,7 +35147,7 @@
       <c r="B3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="111">
+      <c r="C3" s="106">
         <v>4</v>
       </c>
       <c r="D3" s="43" t="s">
@@ -30205,7 +35200,7 @@
       <c r="B4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="43" t="s">
         <v>807</v>
       </c>
@@ -30254,7 +35249,7 @@
       <c r="B5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="112"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="43" t="s">
         <v>218</v>
       </c>
@@ -30305,7 +35300,7 @@
       <c r="B6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="112"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="43" t="s">
         <v>619</v>
       </c>
@@ -30354,7 +35349,7 @@
       <c r="B7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="112"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="43" t="s">
         <v>825</v>
       </c>
@@ -30403,7 +35398,7 @@
       <c r="B8" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="112"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="43" t="s">
         <v>829</v>
       </c>
@@ -30452,7 +35447,7 @@
       <c r="B9" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="112"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="43" t="s">
         <v>468</v>
       </c>
@@ -30503,7 +35498,7 @@
       <c r="B10" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="112"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="43" t="s">
         <v>846</v>
       </c>
@@ -30552,7 +35547,7 @@
       <c r="B11" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="112"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="43" t="s">
         <v>634</v>
       </c>
@@ -30601,7 +35596,7 @@
       <c r="B12" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="112"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="43" t="s">
         <v>598</v>
       </c>
@@ -30650,7 +35645,7 @@
       <c r="B13" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="112"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="43" t="s">
         <v>860</v>
       </c>
@@ -30699,7 +35694,7 @@
       <c r="B14" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="113"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="46" t="s">
         <v>865</v>
       </c>
@@ -30748,7 +35743,7 @@
       <c r="B15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="114">
+      <c r="C15" s="109">
         <v>0.11</v>
       </c>
       <c r="D15" s="43" t="s">
@@ -30801,7 +35796,7 @@
       <c r="B16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="112"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="43" t="s">
         <v>876</v>
       </c>
@@ -30850,7 +35845,7 @@
       <c r="B17" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="112"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="43" t="s">
         <v>883</v>
       </c>
@@ -30901,7 +35896,7 @@
       <c r="B18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="112"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="43" t="s">
         <v>434</v>
       </c>
@@ -30950,7 +35945,7 @@
       <c r="B19" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="112"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="43" t="s">
         <v>896</v>
       </c>
@@ -30999,7 +35994,7 @@
       <c r="B20" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="112"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="43" t="s">
         <v>905</v>
       </c>
@@ -31048,7 +36043,7 @@
       <c r="B21" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="112"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="43" t="s">
         <v>912</v>
       </c>
@@ -31096,7 +36091,7 @@
       <c r="B22" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="112"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="43" t="s">
         <v>919</v>
       </c>
@@ -31147,7 +36142,7 @@
       <c r="B23" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="112"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="43" t="s">
         <v>926</v>
       </c>
@@ -31196,7 +36191,7 @@
       <c r="B24" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="112"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="43" t="s">
         <v>47</v>
       </c>
@@ -31245,7 +36240,7 @@
       <c r="B25" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="112"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="43" t="s">
         <v>598</v>
       </c>
@@ -31294,7 +36289,7 @@
       <c r="B26" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="112"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="43" t="s">
         <v>356</v>
       </c>
@@ -31343,7 +36338,7 @@
       <c r="B27" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="113"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="46" t="s">
         <v>947</v>
       </c>
@@ -31486,7 +36481,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="106" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="43">
@@ -31536,7 +36531,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="112"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="43">
         <v>4</v>
       </c>
@@ -31584,7 +36579,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="112"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="43">
         <v>8</v>
       </c>
@@ -31632,7 +36627,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="113"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="46">
         <v>15</v>
       </c>
@@ -31680,7 +36675,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="109" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="43">
@@ -31730,7 +36725,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="112"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="43">
         <v>4</v>
       </c>
@@ -31778,7 +36773,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="112"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="43">
         <v>8</v>
       </c>
@@ -31826,7 +36821,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="113"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="46">
         <v>15</v>
       </c>
